--- a/Bansal_Excel_Ch_7_BUS_140_Case_Study_F15/BansalDikshaCh7CaseStudy.xlsx
+++ b/Bansal_Excel_Ch_7_BUS_140_Case_Study_F15/BansalDikshaCh7CaseStudy.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\github\BUS 140\BUS-140\Bansal_Excel_Ch_7_BUS_140_Case_Study_F15\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="8070"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisition" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,11 +79,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -325,14 +319,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="2" borderId="4" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="7" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="8" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="10" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -343,6 +336,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="2" borderId="4" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="2" borderId="2" xfId="19" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="15" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,9 +353,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="1" fillId="2" borderId="4" xfId="19" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="0cVwh7wYMJ99ZBtso0ZvlOER7uxzqDX5vSC9SwlRzBE=-~OvdczaVe6m7eddGVNkNsJQ==" xfId="7"/>
@@ -649,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,23 +668,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="18"/>
+      <c r="D1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="16"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2">
         <v>720000</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="2">
@@ -697,13 +692,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>250000</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5">
@@ -712,62 +707,65 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>12</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>B6/B4</f>
         <v>4.3749999999999995E-3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="12">
         <f>-PMT($E$4,$E$3,$E$2)</f>
         <v>2595.3574000669223</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>5.2499999999999998E-2</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="15">
+        <f>CUMIPMT($E$4,$E$3,$E$2,$A$11,$A$15,0)</f>
+        <v>-10257.560636798868</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -775,29 +773,105 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="13">
         <f>E2</f>
         <v>470000</v>
+      </c>
+      <c r="C11" s="14">
+        <f>-IPMT($E$4,A11,$E$3,$E$2)</f>
+        <v>2056.25</v>
+      </c>
+      <c r="D11" s="14">
+        <f>PPMT($E$4,A11,$E$3,-$E$2)</f>
+        <v>539.1074000669222</v>
+      </c>
+      <c r="E11" s="13">
+        <f>B11-D11</f>
+        <v>469460.89259993308</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="B12" s="13">
+        <f>E11</f>
+        <v>469460.89259993308</v>
+      </c>
+      <c r="C12" s="14">
+        <f t="shared" ref="C12:C75" si="0">-IPMT($E$4,A12,$E$3,$E$2)</f>
+        <v>2053.891405124707</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" ref="D12:D15" si="1">PPMT($E$4,A12,$E$3,-$E$2)</f>
+        <v>541.46599494221505</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" ref="E12:E75" si="2">B12-D12</f>
+        <v>468919.42660499085</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="B13" s="13">
+        <f t="shared" ref="B13:B76" si="3">E12</f>
+        <v>468919.42660499085</v>
+      </c>
+      <c r="C13" s="14">
+        <f t="shared" si="0"/>
+        <v>2051.522491396835</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="1"/>
+        <v>543.8349086700872</v>
+      </c>
+      <c r="E13" s="13">
+        <f t="shared" si="2"/>
+        <v>468375.59169632074</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="B14" s="13">
+        <f t="shared" si="3"/>
+        <v>468375.59169632074</v>
+      </c>
+      <c r="C14" s="14">
+        <f t="shared" si="0"/>
+        <v>2049.1432136714034</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="1"/>
+        <v>546.21418639551871</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="2"/>
+        <v>467829.37750992522</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
+      </c>
+      <c r="B15" s="13">
+        <f t="shared" si="3"/>
+        <v>467829.37750992522</v>
+      </c>
+      <c r="C15" s="14">
+        <f t="shared" si="0"/>
+        <v>2046.7535266059228</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="1"/>
+        <v>548.60387346099924</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="2"/>
+        <v>467280.7736364642</v>
       </c>
     </row>
   </sheetData>
